--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/OIP/oip.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/OIP/oip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\OIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\OIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939C596-EB9B-42FB-A2BE-EA392FAFE272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C4061-17E6-41B6-9A80-B391A23D35C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OIP Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -1711,6 +1711,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,48 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3270,7 +3270,7 @@
   </sheetPr>
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
@@ -3319,11 +3319,11 @@
       <c r="H1" s="3">
         <v>43921</v>
       </c>
-      <c r="O1" s="121" t="s">
+      <c r="O1" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="123"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
@@ -3343,16 +3343,16 @@
       <c r="H2" s="68">
         <v>9.9099999999999991E-4</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="O2" s="124" t="s">
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="O2" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="126"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="120"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3385,11 +3385,11 @@
       <c r="J3" s="57"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="O3" s="127" t="s">
+      <c r="O3" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="129"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="123"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
@@ -3409,11 +3409,11 @@
       <c r="E4" s="64">
         <v>2.9731384304618746E-3</v>
       </c>
-      <c r="O4" s="130" t="s">
+      <c r="O4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="132"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="126"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -4084,8 +4084,8 @@
         <v>3.8100000000000002E-2</v>
       </c>
       <c r="M20" s="91"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="120"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="134"/>
       <c r="Q20" s="39" t="str">
         <f>Q11</f>
         <v>OIPIX</v>
@@ -4136,11 +4136,11 @@
         <v>4.8599999999999997E-2</v>
       </c>
       <c r="M21" s="91"/>
-      <c r="O21" s="117" t="str">
+      <c r="O21" s="131" t="str">
         <f>O12</f>
         <v>3MOS</v>
       </c>
-      <c r="P21" s="118"/>
+      <c r="P21" s="132"/>
       <c r="Q21" s="95">
         <f>($Q$18-Q12)/Q12</f>
         <v>-0.29998304222486011</v>
@@ -4187,11 +4187,11 @@
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="M22" s="91"/>
-      <c r="O22" s="117" t="str">
+      <c r="O22" s="131" t="str">
         <f>O13</f>
         <v>6MOS</v>
       </c>
-      <c r="P22" s="118"/>
+      <c r="P22" s="132"/>
       <c r="Q22" s="95">
         <f>Q18/Q13-1</f>
         <v>-0.24113369136005214</v>
@@ -4220,11 +4220,11 @@
         <v>6.2417461403123653E-3</v>
       </c>
       <c r="M23" s="91"/>
-      <c r="O23" s="117" t="str">
+      <c r="O23" s="131" t="str">
         <f>O14</f>
         <v>YTD</v>
       </c>
-      <c r="P23" s="118"/>
+      <c r="P23" s="132"/>
       <c r="Q23" s="95">
         <f>Q18/Q14-1</f>
         <v>-0.29998304222486005</v>
@@ -4253,11 +4253,11 @@
         <v>2.0562761309518951E-2</v>
       </c>
       <c r="M24" s="91"/>
-      <c r="O24" s="117" t="str">
+      <c r="O24" s="131" t="str">
         <f>O15</f>
         <v>1YR</v>
       </c>
-      <c r="P24" s="118"/>
+      <c r="P24" s="132"/>
       <c r="Q24" s="95">
         <f>Q18/Q15-1</f>
         <v>-0.23782983369378041</v>
@@ -4286,11 +4286,11 @@
         <v>3.0620622633290573E-3</v>
       </c>
       <c r="M25" s="6"/>
-      <c r="O25" s="117" t="str">
+      <c r="O25" s="131" t="str">
         <f>O16</f>
         <v>3YR</v>
       </c>
-      <c r="P25" s="118"/>
+      <c r="P25" s="132"/>
       <c r="Q25" s="95">
         <f>(Q18/Q16)^(1/3)-1</f>
         <v>7.4831925723195525E-4</v>
@@ -4319,10 +4319,10 @@
         <v>2.0627748382813005E-2</v>
       </c>
       <c r="M26" s="6"/>
-      <c r="O26" s="117" t="s">
+      <c r="O26" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="P26" s="118"/>
+      <c r="P26" s="132"/>
       <c r="Q26" s="95">
         <f>($Q$18-Q17)/Q17</f>
         <v>0.2384</v>
@@ -4352,10 +4352,10 @@
         <v>2.3334840434781512E-2</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="O27" s="115" t="s">
+      <c r="O27" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="116"/>
+      <c r="P27" s="130"/>
       <c r="Q27" s="73">
         <f>(1+Q26)^(12/$H$3)-1</f>
         <v>4.8662565688309289E-2</v>
@@ -5673,11 +5673,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I2:M2"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="O26:P26"/>
     <mergeCell ref="O22:P22"/>
@@ -5686,6 +5681,11 @@
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5700,7 +5700,7 @@
   </sheetPr>
   <dimension ref="A3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6575,7 +6575,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD282BC-3ED6-4813-B480-150B484B3A08}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -6711,13 +6711,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9239851-9267-495D-A2F1-B865081A09AE}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6907,13 +6905,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350C5FB5-D912-40DC-9C08-29FC1A90D6D2}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
